--- a/results/mp/tinybert/corona/confidence/84/topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/topk-0.15/avg_0.003_scores.xlsx
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,118 +49,121 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +590,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +640,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +690,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>118</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L5">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>55</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5">
-        <v>0.9375</v>
-      </c>
-      <c r="L5">
-        <v>30</v>
-      </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +740,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7077922077922078</v>
+        <v>0.187984496124031</v>
       </c>
       <c r="C6">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +790,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +840,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3562231759656652</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,219 +858,123 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L8">
+        <v>95</v>
+      </c>
+      <c r="M8">
+        <v>95</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L9">
+        <v>33</v>
+      </c>
+      <c r="M9">
+        <v>33</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L10">
+        <v>65</v>
+      </c>
+      <c r="M10">
+        <v>65</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.7890625</v>
+      </c>
+      <c r="L11">
+        <v>101</v>
+      </c>
+      <c r="M11">
+        <v>101</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K8">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>68</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L9">
-        <v>44</v>
-      </c>
-      <c r="M9">
-        <v>44</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.15</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>68</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L10">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C11">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>97</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L11">
-        <v>23</v>
-      </c>
-      <c r="M11">
-        <v>23</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>120</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
         <v>28</v>
       </c>
-      <c r="K12">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L12">
-        <v>43</v>
-      </c>
       <c r="M12">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1087,16 +991,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.825</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1108,21 +1012,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.8148148148148148</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1134,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.76</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1160,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.726027397260274</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L16">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1186,21 +1090,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7068965517241379</v>
+        <v>0.7166666666666667</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1212,21 +1116,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1238,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7058823529411765</v>
+        <v>0.675</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1264,47 +1168,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="L20">
+        <v>70</v>
+      </c>
+      <c r="M20">
+        <v>70</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>36</v>
-      </c>
-      <c r="K20">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L20">
-        <v>18</v>
-      </c>
-      <c r="M20">
-        <v>18</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6923076923076923</v>
+        <v>0.625</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1316,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6896551724137931</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1342,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1368,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6363636363636364</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1394,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5789473684210527</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1420,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.4986945169712794</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1446,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.539906103286385</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L27">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="M27">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1472,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>98</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5333333333333333</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1498,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5069444444444444</v>
+        <v>0.3966101694915254</v>
       </c>
       <c r="L29">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="M29">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1524,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>71</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4806201550387597</v>
+        <v>0.359375</v>
       </c>
       <c r="L30">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1550,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.4642857142857143</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1576,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.3714285714285714</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1602,33 +1506,137 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.3150684931506849</v>
+      </c>
+      <c r="L33">
+        <v>23</v>
+      </c>
+      <c r="M33">
+        <v>23</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.02333333333333333</v>
+      </c>
+      <c r="L34">
+        <v>28</v>
+      </c>
+      <c r="M34">
+        <v>28</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.008985398727068513</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+      <c r="M35">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <v>0.92</v>
+      </c>
+      <c r="O35">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>0.005204163330664532</v>
+      </c>
+      <c r="L36">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K33">
-        <v>0.3478260869565217</v>
-      </c>
-      <c r="L33">
-        <v>32</v>
-      </c>
-      <c r="M33">
-        <v>32</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>60</v>
+      <c r="K37">
+        <v>0.004623208506703652</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>22</v>
+      </c>
+      <c r="N37">
+        <v>0.91</v>
+      </c>
+      <c r="O37">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>4306</v>
       </c>
     </row>
   </sheetData>
